--- a/excelSheets-samples/Enter New Members Template.xlsx
+++ b/excelSheets-samples/Enter New Members Template.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelvi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvin Waiyaki\Desktop\Work Projects\chalis-app\excelSheets-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902E5C63-1150-406E-A182-E9213CDE6B8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABB15F7-D20E-408D-A7B2-29177AC1AA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -414,28 +425,36 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="16"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Sofia Sans Extra Condensed Medi"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Sofia Sans Extra Condensed Medi"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="15"/>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Sofia Sans Extra Condensed Medi"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Sofia Sans Extra Condensed Medi"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -461,8 +480,8 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -775,1322 +794,1319 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A66" sqref="A66:XFD66"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="6" width="15" customWidth="1"/>
-    <col min="7" max="26" width="9.140625" hidden="1" collapsed="1"/>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="1" customWidth="1"/>
+    <col min="7" max="26" width="9.1796875" style="1" hidden="1" collapsed="1"/>
+    <col min="27" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1">
         <v>149200</v>
       </c>
-      <c r="E2" s="4">
-        <v>19500</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="E2" s="1">
+        <v>19500</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>122900</v>
       </c>
-      <c r="E3" s="4">
-        <v>19500</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="E3" s="1">
+        <v>19500</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>122900</v>
       </c>
-      <c r="E4" s="4">
-        <v>19500</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="E4" s="1">
+        <v>19500</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>98900</v>
       </c>
-      <c r="E5" s="4">
-        <v>19500</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+      <c r="E5" s="1">
+        <v>19500</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>96900</v>
       </c>
-      <c r="E6" s="4">
-        <v>19500</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+      <c r="E6" s="1">
+        <v>19500</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>95500</v>
       </c>
-      <c r="E7" s="4">
-        <v>19500</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+      <c r="E7" s="1">
+        <v>19500</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>95500</v>
       </c>
-      <c r="E8" s="4">
-        <v>19500</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
+      <c r="E8" s="1">
+        <v>19500</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <v>89700</v>
       </c>
-      <c r="E9" s="4">
-        <v>19500</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
+      <c r="E9" s="1">
+        <v>19500</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <v>89700</v>
       </c>
-      <c r="E10" s="4">
-        <v>19500</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+      <c r="E10" s="1">
+        <v>19500</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
         <v>53500</v>
       </c>
-      <c r="E11" s="4">
-        <v>19500</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
+      <c r="E11" s="1">
+        <v>19500</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="1">
         <v>66200</v>
       </c>
-      <c r="E12" s="4">
-        <v>19500</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
+      <c r="E12" s="1">
+        <v>19500</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="1">
         <v>66200</v>
       </c>
-      <c r="E13" s="4">
-        <v>19500</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+      <c r="E13" s="1">
+        <v>19500</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="1">
         <v>54600</v>
       </c>
-      <c r="E14" s="4">
-        <v>19500</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
+      <c r="E14" s="1">
+        <v>19500</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="1">
         <v>54400</v>
       </c>
-      <c r="E15" s="4">
-        <v>19500</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
+      <c r="E15" s="1">
+        <v>19500</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="1">
         <v>54400</v>
       </c>
-      <c r="E16" s="4">
-        <v>19500</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+      <c r="E16" s="1">
+        <v>19500</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="1">
         <v>41600</v>
       </c>
-      <c r="E17" s="4">
-        <v>19500</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
+      <c r="E17" s="1">
+        <v>19500</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="1">
         <v>33000</v>
       </c>
-      <c r="E18" s="4">
-        <v>19500</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
+      <c r="E18" s="1">
+        <v>19500</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="1">
         <v>38800</v>
       </c>
-      <c r="E19" s="4">
-        <v>19500</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
+      <c r="E19" s="1">
+        <v>19500</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="1">
         <v>28900</v>
       </c>
-      <c r="E20" s="4">
-        <v>19500</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
+      <c r="E20" s="1">
+        <v>19500</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="1">
         <v>28900</v>
       </c>
-      <c r="E21" s="4">
-        <v>19500</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
+      <c r="E21" s="1">
+        <v>19500</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="1">
         <v>31150</v>
       </c>
-      <c r="E22" s="4">
-        <v>19500</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
+      <c r="E22" s="1">
+        <v>19500</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="1">
         <v>28250</v>
       </c>
-      <c r="E23" s="4">
-        <v>19500</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
+      <c r="E23" s="1">
+        <v>19500</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="1">
         <v>14400</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="1">
         <v>9600</v>
       </c>
-      <c r="F24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4">
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
         <v>2900</v>
       </c>
-      <c r="F25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="1">
         <v>26100</v>
       </c>
-      <c r="E26" s="4">
-        <v>19500</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
+      <c r="E26" s="1">
+        <v>19500</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="1">
         <v>8300</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="1">
         <v>6900</v>
       </c>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="1">
         <v>16800</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="1">
         <v>12600</v>
       </c>
-      <c r="F28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="1">
         <v>15000</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="1">
         <v>14100</v>
       </c>
-      <c r="F29" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="1">
         <v>16800</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="1">
         <v>14100</v>
       </c>
-      <c r="F30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="1">
         <v>21900</v>
       </c>
-      <c r="E31" s="4">
-        <v>19500</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
+      <c r="E31" s="1">
+        <v>19500</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="4">
-        <v>0</v>
-      </c>
-      <c r="E32" s="4">
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
         <v>1400</v>
       </c>
-      <c r="F32" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="1">
         <v>19600</v>
       </c>
-      <c r="E33" s="4">
-        <v>19500</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
+      <c r="E33" s="1">
+        <v>19500</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="1">
         <v>19000</v>
       </c>
-      <c r="E34" s="4">
-        <v>19500</v>
-      </c>
-      <c r="F34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
+      <c r="E34" s="1">
+        <v>19500</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="1">
         <v>10400</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="1">
         <v>9900</v>
       </c>
-      <c r="F35" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A36" s="3">
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="1">
         <v>19950</v>
       </c>
-      <c r="E36" s="4">
-        <v>19500</v>
-      </c>
-      <c r="F36" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A37" s="3">
+      <c r="E36" s="1">
+        <v>19500</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="1">
         <v>2500</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="1">
         <v>7200</v>
       </c>
-      <c r="F37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A38" s="3">
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="1">
         <v>6500</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="1">
         <v>11600</v>
       </c>
-      <c r="F38" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A39" s="3">
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="1">
         <v>1500</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="1">
         <v>4050</v>
       </c>
-      <c r="F39" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A40" s="3">
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="1">
         <v>300</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="1">
         <v>4200</v>
       </c>
-      <c r="F40" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A41" s="3">
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="1">
         <v>11800</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="1">
         <v>13800</v>
       </c>
-      <c r="F41" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A42" s="3">
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="1">
         <v>7200</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="1">
         <v>13300</v>
       </c>
-      <c r="F42" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A43" s="3">
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D43" s="4">
-        <v>0</v>
-      </c>
-      <c r="E43" s="4">
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
         <v>1400</v>
       </c>
-      <c r="F43" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A44" s="3">
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4">
+      <c r="E44" s="1">
         <v>1400</v>
       </c>
-      <c r="F44" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A45" s="3">
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="4">
-        <v>0</v>
-      </c>
-      <c r="E45" s="4">
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
         <v>1400</v>
       </c>
-      <c r="F45" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A46" s="3">
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="1">
         <v>18500</v>
       </c>
-      <c r="E46" s="4">
-        <v>19500</v>
-      </c>
-      <c r="F46" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A47" s="3">
+      <c r="E46" s="1">
+        <v>19500</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="1">
         <v>18500</v>
       </c>
-      <c r="E47" s="4">
-        <v>19500</v>
-      </c>
-      <c r="F47" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A48" s="3">
+      <c r="E47" s="1">
+        <v>19500</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="1">
         <v>9600</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="1">
         <v>12600</v>
       </c>
-      <c r="F48" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A49" s="3">
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="1">
         <v>7100</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="1">
         <v>10500</v>
       </c>
-      <c r="F49" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A50" s="3">
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4">
+      <c r="D50" s="1">
         <v>1000</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="1">
         <v>5400</v>
       </c>
-      <c r="F50" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A51" s="3">
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="1">
         <v>8100</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="1">
         <v>13600</v>
       </c>
-      <c r="F51" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A52" s="3">
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="1">
         <v>6900</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="1">
         <v>12650</v>
       </c>
-      <c r="F52" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A53" s="3">
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="1">
         <v>4600</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="1">
         <v>10600</v>
       </c>
-      <c r="F53" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A54" s="3">
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="1">
         <v>4500</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="1">
         <v>10800</v>
       </c>
-      <c r="F54" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A55" s="3">
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="1">
         <v>5000</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="1">
         <v>13100</v>
       </c>
-      <c r="F55" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A56" s="3">
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="1">
         <v>7800</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="1">
         <v>15300</v>
       </c>
-      <c r="F56" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A57" s="3">
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="1">
         <v>6200</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="1">
         <v>13800</v>
       </c>
-      <c r="F57" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A58" s="3">
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="1">
         <v>5500</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="1">
         <v>13600</v>
       </c>
-      <c r="F58" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A59" s="3">
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="1">
         <v>5500</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="1">
         <v>13600</v>
       </c>
-      <c r="F59" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A60" s="3">
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="1">
         <v>5500</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="1">
         <v>13600</v>
       </c>
-      <c r="F60" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A61" s="3">
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="1">
         <v>6500</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="1">
         <v>14600</v>
       </c>
-      <c r="F61" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A62" s="3">
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="1">
         <v>7200</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="1">
         <v>15300</v>
       </c>
-      <c r="F62" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A63" s="3">
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="1">
         <v>5500</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="1">
         <v>14100</v>
       </c>
-      <c r="F63" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A64" s="3">
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="1">
         <v>5100</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="1">
         <v>13800</v>
       </c>
-      <c r="F64" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A65" s="3">
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="1">
         <v>4000</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="1">
         <v>14400</v>
       </c>
-      <c r="F65" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A66" s="3"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-    </row>
-    <row r="67" spans="1:6" ht="24" x14ac:dyDescent="0.4">
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="4"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
